--- a/biology/Origine et évolution du vivant/Theriodontia/Theriodontia.xlsx
+++ b/biology/Origine et évolution du vivant/Theriodontia/Theriodontia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thériodontes
 Les thériodontes (Theriodontia) forment un clade majeur de thérapsides apparu au milieu du Permien et qui inclut les gorgonopsiens et les euthériodontes, lui-même incluant les thérocéphales ainsi que les cynodontes (et donc par extension leurs descendants mammifères, humain compris).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mâchoires des thériodontes[note 1] ressemblent plus à celles des mammifères qu'a celui des autres thérapsides, car leurs os dentaires sont plus larges, ce qui leur donne une capacité de mastication plus efficace. Contrairement aux reptiles et à de nombreux synapsides, plusieurs autres os qui se trouvent sur la mâchoire inférieure se retrouve dans les oreilles, permettant aux thériodontes de mieux entendre et à leurs mâchoires de s'ouvrir plus largement.
 </t>
@@ -543,7 +557,9 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thériodontes apparaissent au sein des Neotherapsida, en même temps que leur groupe frère  anomodontes, durant le Permien moyen, vers environ 270 millions d'années. Les représentants de ce clade ressemblent davantage à des mammifères que leurs contemporains (anomodontes, biarmosuchiens et dinocéphales) et aurait peut-être été à sang chaud. Les premières formes sont carnivores, mais plusieurs groupes ultérieurs deveniennent herbivores durant le Trias.
 </t>
@@ -576,11 +592,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-En 1876, après une collecte de nombreux fossiles d'amniotes provenant d'Afrique du Sud, Richard Owen nomme un sous-ordre du nom de Theriodontia, qu'il divise en deux sous-groupe : Cynodontia et Gomphodontia[1].
-Le concept moderne de ce clade est conçu par James Hopson en 1999 : dans son système, les Theriodontia se divisent en deux sous-groupes principaux : les Gorgonopsia et les Eutheriodontia, ce dernier constitués des Therocephalia et des Cynodontia[2].
-Phylogénie
-Le cladogramme ci-dessous présente la phylogénie des thérapsides selon T. S. Kemp (2011)[3] basée selon la proposition d'Hopson et Barghausen (1986)[4] :
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1876, après une collecte de nombreux fossiles d'amniotes provenant d'Afrique du Sud, Richard Owen nomme un sous-ordre du nom de Theriodontia, qu'il divise en deux sous-groupe : Cynodontia et Gomphodontia.
+Le concept moderne de ce clade est conçu par James Hopson en 1999 : dans son système, les Theriodontia se divisent en deux sous-groupes principaux : les Gorgonopsia et les Eutheriodontia, ce dernier constitués des Therocephalia et des Cynodontia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Theriodontia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Theriodontia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous présente la phylogénie des thérapsides selon T. S. Kemp (2011) basée selon la proposition d'Hopson et Barghausen (1986) :
 </t>
         </is>
       </c>
